--- a/natmiOut/YoungD4/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>S100a8</t>
   </si>
   <si>
     <t>Tlr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>37.3376729091777</v>
+        <v>0.237935</v>
       </c>
       <c r="H2">
-        <v>37.3376729091777</v>
+        <v>0.713805</v>
       </c>
       <c r="I2">
-        <v>0.6535478841645096</v>
+        <v>0.002259050200294824</v>
       </c>
       <c r="J2">
-        <v>0.6535478841645096</v>
+        <v>0.002259050200294824</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.820189278529231</v>
+        <v>9.115710333333334</v>
       </c>
       <c r="N2">
-        <v>8.820189278529231</v>
+        <v>27.347131</v>
       </c>
       <c r="O2">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="P2">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="Q2">
-        <v>329.3253422787604</v>
+        <v>2.168946538161667</v>
       </c>
       <c r="R2">
-        <v>329.3253422787604</v>
+        <v>19.520518843455</v>
       </c>
       <c r="S2">
-        <v>0.07097794626401389</v>
+        <v>0.0002499317445823489</v>
       </c>
       <c r="T2">
-        <v>0.07097794626401389</v>
+        <v>0.0002499317445823489</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>37.3376729091777</v>
+        <v>0.237935</v>
       </c>
       <c r="H3">
-        <v>37.3376729091777</v>
+        <v>0.713805</v>
       </c>
       <c r="I3">
-        <v>0.6535478841645096</v>
+        <v>0.002259050200294824</v>
       </c>
       <c r="J3">
-        <v>0.6535478841645096</v>
+        <v>0.002259050200294824</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.957474287986891</v>
+        <v>9.004096000000001</v>
       </c>
       <c r="N3">
-        <v>8.957474287986891</v>
+        <v>27.012288</v>
       </c>
       <c r="O3">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="P3">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="Q3">
-        <v>334.4512450572239</v>
+        <v>2.14238958176</v>
       </c>
       <c r="R3">
-        <v>334.4512450572239</v>
+        <v>19.28150623584</v>
       </c>
       <c r="S3">
-        <v>0.0720827080459249</v>
+        <v>0.0002468715370910699</v>
       </c>
       <c r="T3">
-        <v>0.0720827080459249</v>
+        <v>0.0002468715370910699</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>37.3376729091777</v>
+        <v>0.237935</v>
       </c>
       <c r="H4">
-        <v>37.3376729091777</v>
+        <v>0.713805</v>
       </c>
       <c r="I4">
-        <v>0.6535478841645096</v>
+        <v>0.002259050200294824</v>
       </c>
       <c r="J4">
-        <v>0.6535478841645096</v>
+        <v>0.002259050200294824</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.5721116910725</v>
+        <v>31.76332533333333</v>
       </c>
       <c r="N4">
-        <v>31.5721116910725</v>
+        <v>95.289976</v>
       </c>
       <c r="O4">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="P4">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="Q4">
-        <v>1178.82917937329</v>
+        <v>7.557606813186666</v>
       </c>
       <c r="R4">
-        <v>1178.82917937329</v>
+        <v>68.01846131868</v>
       </c>
       <c r="S4">
-        <v>0.2540675235287085</v>
+        <v>0.0008708770928434924</v>
       </c>
       <c r="T4">
-        <v>0.2540675235287085</v>
+        <v>0.0008708770928434924</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>37.3376729091777</v>
+        <v>0.237935</v>
       </c>
       <c r="H5">
-        <v>37.3376729091777</v>
+        <v>0.713805</v>
       </c>
       <c r="I5">
-        <v>0.6535478841645096</v>
+        <v>0.002259050200294824</v>
       </c>
       <c r="J5">
-        <v>0.6535478841645096</v>
+        <v>0.002259050200294824</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.73201046725</v>
+        <v>30.12843966666667</v>
       </c>
       <c r="N5">
-        <v>29.73201046725</v>
+        <v>90.385319</v>
       </c>
       <c r="O5">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976674</v>
       </c>
       <c r="P5">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976673</v>
       </c>
       <c r="Q5">
-        <v>1110.124081758428</v>
+        <v>7.168610292088333</v>
       </c>
       <c r="R5">
-        <v>1110.124081758428</v>
+        <v>64.517492628795</v>
       </c>
       <c r="S5">
-        <v>0.2392598361128895</v>
+        <v>0.0008260523000493953</v>
       </c>
       <c r="T5">
-        <v>0.2392598361128895</v>
+        <v>0.0008260523000493952</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>37.3376729091777</v>
+        <v>0.237935</v>
       </c>
       <c r="H6">
-        <v>37.3376729091777</v>
+        <v>0.713805</v>
       </c>
       <c r="I6">
-        <v>0.6535478841645096</v>
+        <v>0.002259050200294824</v>
       </c>
       <c r="J6">
-        <v>0.6535478841645096</v>
+        <v>0.002259050200294824</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.13239902307729</v>
+        <v>2.382313</v>
       </c>
       <c r="N6">
-        <v>2.13239902307729</v>
+        <v>7.146939</v>
       </c>
       <c r="O6">
-        <v>0.02625648499330667</v>
+        <v>0.0289137114881257</v>
       </c>
       <c r="P6">
-        <v>0.02625648499330667</v>
+        <v>0.02891371148812569</v>
       </c>
       <c r="Q6">
-        <v>79.61881723550991</v>
+        <v>0.5668356436549999</v>
       </c>
       <c r="R6">
-        <v>79.61881723550991</v>
+        <v>5.101520792895</v>
       </c>
       <c r="S6">
-        <v>0.01715987021297278</v>
+        <v>6.53175257285171E-05</v>
       </c>
       <c r="T6">
-        <v>0.01715987021297278</v>
+        <v>6.531752572851709E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>19.7930650426556</v>
+        <v>0.626533</v>
       </c>
       <c r="H7">
-        <v>19.7930650426556</v>
+        <v>1.879599</v>
       </c>
       <c r="I7">
-        <v>0.3464521158354904</v>
+        <v>0.005948555274092995</v>
       </c>
       <c r="J7">
-        <v>0.3464521158354904</v>
+        <v>0.005948555274092995</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.820189278529231</v>
+        <v>9.115710333333334</v>
       </c>
       <c r="N7">
-        <v>8.820189278529231</v>
+        <v>27.347131</v>
       </c>
       <c r="O7">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="P7">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="Q7">
-        <v>174.5785800784626</v>
+        <v>5.711293342274334</v>
       </c>
       <c r="R7">
-        <v>174.5785800784626</v>
+        <v>51.401640080469</v>
       </c>
       <c r="S7">
-        <v>0.03762610247336597</v>
+        <v>0.0006581229568092664</v>
       </c>
       <c r="T7">
-        <v>0.03762610247336597</v>
+        <v>0.0006581229568092663</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>19.7930650426556</v>
+        <v>0.626533</v>
       </c>
       <c r="H8">
-        <v>19.7930650426556</v>
+        <v>1.879599</v>
       </c>
       <c r="I8">
-        <v>0.3464521158354904</v>
+        <v>0.005948555274092995</v>
       </c>
       <c r="J8">
-        <v>0.3464521158354904</v>
+        <v>0.005948555274092995</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.957474287986891</v>
+        <v>9.004096000000001</v>
       </c>
       <c r="N8">
-        <v>8.957474287986891</v>
+        <v>27.012288</v>
       </c>
       <c r="O8">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="P8">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="Q8">
-        <v>177.2958712000397</v>
+        <v>5.641363279168001</v>
       </c>
       <c r="R8">
-        <v>177.2958712000397</v>
+        <v>50.772269512512</v>
       </c>
       <c r="S8">
-        <v>0.03821174748287673</v>
+        <v>0.0006500647855434438</v>
       </c>
       <c r="T8">
-        <v>0.03821174748287673</v>
+        <v>0.0006500647855434438</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>19.7930650426556</v>
+        <v>0.626533</v>
       </c>
       <c r="H9">
-        <v>19.7930650426556</v>
+        <v>1.879599</v>
       </c>
       <c r="I9">
-        <v>0.3464521158354904</v>
+        <v>0.005948555274092995</v>
       </c>
       <c r="J9">
-        <v>0.3464521158354904</v>
+        <v>0.005948555274092995</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.5721116910725</v>
+        <v>31.76332533333333</v>
       </c>
       <c r="N9">
-        <v>31.5721116910725</v>
+        <v>95.289976</v>
       </c>
       <c r="O9">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="P9">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="Q9">
-        <v>624.9088602353852</v>
+        <v>19.90077151106933</v>
       </c>
       <c r="R9">
-        <v>624.9088602353852</v>
+        <v>179.106943599624</v>
       </c>
       <c r="S9">
-        <v>0.1346836754037254</v>
+        <v>0.002293202923531687</v>
       </c>
       <c r="T9">
-        <v>0.1346836754037254</v>
+        <v>0.002293202923531687</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>19.7930650426556</v>
+        <v>0.626533</v>
       </c>
       <c r="H10">
-        <v>19.7930650426556</v>
+        <v>1.879599</v>
       </c>
       <c r="I10">
-        <v>0.3464521158354904</v>
+        <v>0.005948555274092995</v>
       </c>
       <c r="J10">
-        <v>0.3464521158354904</v>
+        <v>0.005948555274092995</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>29.73201046725</v>
+        <v>30.12843966666667</v>
       </c>
       <c r="N10">
-        <v>29.73201046725</v>
+        <v>90.385319</v>
       </c>
       <c r="O10">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976674</v>
       </c>
       <c r="P10">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976673</v>
       </c>
       <c r="Q10">
-        <v>588.4876170271963</v>
+        <v>18.87646168967566</v>
       </c>
       <c r="R10">
-        <v>588.4876170271963</v>
+        <v>169.888155207081</v>
       </c>
       <c r="S10">
-        <v>0.1268339756951885</v>
+        <v>0.002175169797242305</v>
       </c>
       <c r="T10">
-        <v>0.1268339756951885</v>
+        <v>0.002175169797242305</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.626533</v>
+      </c>
+      <c r="H11">
+        <v>1.879599</v>
+      </c>
+      <c r="I11">
+        <v>0.005948555274092995</v>
+      </c>
+      <c r="J11">
+        <v>0.005948555274092995</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.382313</v>
+      </c>
+      <c r="N11">
+        <v>7.146939</v>
+      </c>
+      <c r="O11">
+        <v>0.0289137114881257</v>
+      </c>
+      <c r="P11">
+        <v>0.02891371148812569</v>
+      </c>
+      <c r="Q11">
+        <v>1.492597710829</v>
+      </c>
+      <c r="R11">
+        <v>13.433379397461</v>
+      </c>
+      <c r="S11">
+        <v>0.0001719948109662934</v>
+      </c>
+      <c r="T11">
+        <v>0.0001719948109662933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>40.62604133333334</v>
+      </c>
+      <c r="H12">
+        <v>121.878124</v>
+      </c>
+      <c r="I12">
+        <v>0.3857199101067622</v>
+      </c>
+      <c r="J12">
+        <v>0.3857199101067622</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>9.115710333333334</v>
+      </c>
+      <c r="N12">
+        <v>27.347131</v>
+      </c>
+      <c r="O12">
+        <v>0.1106357638930427</v>
+      </c>
+      <c r="P12">
+        <v>0.1106357638930427</v>
+      </c>
+      <c r="Q12">
+        <v>370.3352247846939</v>
+      </c>
+      <c r="R12">
+        <v>3333.017023062244</v>
+      </c>
+      <c r="S12">
+        <v>0.04267441690341739</v>
+      </c>
+      <c r="T12">
+        <v>0.04267441690341738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>40.62604133333334</v>
+      </c>
+      <c r="H13">
+        <v>121.878124</v>
+      </c>
+      <c r="I13">
+        <v>0.3857199101067622</v>
+      </c>
+      <c r="J13">
+        <v>0.3857199101067622</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.004096000000001</v>
+      </c>
+      <c r="N13">
+        <v>27.012288</v>
+      </c>
+      <c r="O13">
+        <v>0.1092811204721574</v>
+      </c>
+      <c r="P13">
+        <v>0.1092811204721574</v>
+      </c>
+      <c r="Q13">
+        <v>365.8007762653014</v>
+      </c>
+      <c r="R13">
+        <v>3292.206986387713</v>
+      </c>
+      <c r="S13">
+        <v>0.04215190396488679</v>
+      </c>
+      <c r="T13">
+        <v>0.04215190396488679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>40.62604133333334</v>
+      </c>
+      <c r="H14">
+        <v>121.878124</v>
+      </c>
+      <c r="I14">
+        <v>0.3857199101067622</v>
+      </c>
+      <c r="J14">
+        <v>0.3857199101067622</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>31.76332533333333</v>
+      </c>
+      <c r="N14">
+        <v>95.289976</v>
+      </c>
+      <c r="O14">
+        <v>0.3855058611490069</v>
+      </c>
+      <c r="P14">
+        <v>0.3855058611490069</v>
+      </c>
+      <c r="Q14">
+        <v>1290.418167876114</v>
+      </c>
+      <c r="R14">
+        <v>11613.76351088502</v>
+      </c>
+      <c r="S14">
+        <v>0.1486972861080249</v>
+      </c>
+      <c r="T14">
+        <v>0.1486972861080249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>19.7930650426556</v>
-      </c>
-      <c r="H11">
-        <v>19.7930650426556</v>
-      </c>
-      <c r="I11">
-        <v>0.3464521158354904</v>
-      </c>
-      <c r="J11">
-        <v>0.3464521158354904</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.13239902307729</v>
-      </c>
-      <c r="N11">
-        <v>2.13239902307729</v>
-      </c>
-      <c r="O11">
-        <v>0.02625648499330667</v>
-      </c>
-      <c r="P11">
-        <v>0.02625648499330667</v>
-      </c>
-      <c r="Q11">
-        <v>42.20671256066405</v>
-      </c>
-      <c r="R11">
-        <v>42.20671256066405</v>
-      </c>
-      <c r="S11">
-        <v>0.009096614780333899</v>
-      </c>
-      <c r="T11">
-        <v>0.009096614780333899</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>40.62604133333334</v>
+      </c>
+      <c r="H15">
+        <v>121.878124</v>
+      </c>
+      <c r="I15">
+        <v>0.3857199101067622</v>
+      </c>
+      <c r="J15">
+        <v>0.3857199101067622</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>30.12843966666667</v>
+      </c>
+      <c r="N15">
+        <v>90.385319</v>
+      </c>
+      <c r="O15">
+        <v>0.3656635429976674</v>
+      </c>
+      <c r="P15">
+        <v>0.3656635429976673</v>
+      </c>
+      <c r="Q15">
+        <v>1223.99923520684</v>
+      </c>
+      <c r="R15">
+        <v>11015.99311686156</v>
+      </c>
+      <c r="S15">
+        <v>0.1410437089343805</v>
+      </c>
+      <c r="T15">
+        <v>0.1410437089343804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>40.62604133333334</v>
+      </c>
+      <c r="H16">
+        <v>121.878124</v>
+      </c>
+      <c r="I16">
+        <v>0.3857199101067622</v>
+      </c>
+      <c r="J16">
+        <v>0.3857199101067622</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.382313</v>
+      </c>
+      <c r="N16">
+        <v>7.146939</v>
+      </c>
+      <c r="O16">
+        <v>0.0289137114881257</v>
+      </c>
+      <c r="P16">
+        <v>0.02891371148812569</v>
+      </c>
+      <c r="Q16">
+        <v>96.78394640693735</v>
+      </c>
+      <c r="R16">
+        <v>871.055517662436</v>
+      </c>
+      <c r="S16">
+        <v>0.0111525941960527</v>
+      </c>
+      <c r="T16">
+        <v>0.0111525941960527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>63.60894166666667</v>
+      </c>
+      <c r="H17">
+        <v>190.826825</v>
+      </c>
+      <c r="I17">
+        <v>0.6039287721967138</v>
+      </c>
+      <c r="J17">
+        <v>0.6039287721967138</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.115710333333334</v>
+      </c>
+      <c r="N17">
+        <v>27.347131</v>
+      </c>
+      <c r="O17">
+        <v>0.1106357638930427</v>
+      </c>
+      <c r="P17">
+        <v>0.1106357638930427</v>
+      </c>
+      <c r="Q17">
+        <v>579.8406868432306</v>
+      </c>
+      <c r="R17">
+        <v>5218.566181589075</v>
+      </c>
+      <c r="S17">
+        <v>0.06681612104897079</v>
+      </c>
+      <c r="T17">
+        <v>0.06681612104897078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>63.60894166666667</v>
+      </c>
+      <c r="H18">
+        <v>190.826825</v>
+      </c>
+      <c r="I18">
+        <v>0.6039287721967138</v>
+      </c>
+      <c r="J18">
+        <v>0.6039287721967138</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.004096000000001</v>
+      </c>
+      <c r="N18">
+        <v>27.012288</v>
+      </c>
+      <c r="O18">
+        <v>0.1092811204721574</v>
+      </c>
+      <c r="P18">
+        <v>0.1092811204721574</v>
+      </c>
+      <c r="Q18">
+        <v>572.7410172250668</v>
+      </c>
+      <c r="R18">
+        <v>5154.669155025601</v>
+      </c>
+      <c r="S18">
+        <v>0.06599801291103118</v>
+      </c>
+      <c r="T18">
+        <v>0.06599801291103118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>63.60894166666667</v>
+      </c>
+      <c r="H19">
+        <v>190.826825</v>
+      </c>
+      <c r="I19">
+        <v>0.6039287721967138</v>
+      </c>
+      <c r="J19">
+        <v>0.6039287721967138</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>31.76332533333333</v>
+      </c>
+      <c r="N19">
+        <v>95.289976</v>
+      </c>
+      <c r="O19">
+        <v>0.3855058611490069</v>
+      </c>
+      <c r="P19">
+        <v>0.3855058611490069</v>
+      </c>
+      <c r="Q19">
+        <v>2020.431508267356</v>
+      </c>
+      <c r="R19">
+        <v>18183.8835744062</v>
+      </c>
+      <c r="S19">
+        <v>0.2328180813983566</v>
+      </c>
+      <c r="T19">
+        <v>0.2328180813983566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>63.60894166666667</v>
+      </c>
+      <c r="H20">
+        <v>190.826825</v>
+      </c>
+      <c r="I20">
+        <v>0.6039287721967138</v>
+      </c>
+      <c r="J20">
+        <v>0.6039287721967138</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>30.12843966666667</v>
+      </c>
+      <c r="N20">
+        <v>90.385319</v>
+      </c>
+      <c r="O20">
+        <v>0.3656635429976674</v>
+      </c>
+      <c r="P20">
+        <v>0.3656635429976673</v>
+      </c>
+      <c r="Q20">
+        <v>1916.438161264686</v>
+      </c>
+      <c r="R20">
+        <v>17247.94345138218</v>
+      </c>
+      <c r="S20">
+        <v>0.2208347345596816</v>
+      </c>
+      <c r="T20">
+        <v>0.2208347345596815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>63.60894166666667</v>
+      </c>
+      <c r="H21">
+        <v>190.826825</v>
+      </c>
+      <c r="I21">
+        <v>0.6039287721967138</v>
+      </c>
+      <c r="J21">
+        <v>0.6039287721967138</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.382313</v>
+      </c>
+      <c r="N21">
+        <v>7.146939</v>
+      </c>
+      <c r="O21">
+        <v>0.0289137114881257</v>
+      </c>
+      <c r="P21">
+        <v>0.02891371148812569</v>
+      </c>
+      <c r="Q21">
+        <v>151.5364086487417</v>
+      </c>
+      <c r="R21">
+        <v>1363.827677838675</v>
+      </c>
+      <c r="S21">
+        <v>0.01746182227867377</v>
+      </c>
+      <c r="T21">
+        <v>0.01746182227867377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.225787</v>
+      </c>
+      <c r="H22">
+        <v>0.677361</v>
+      </c>
+      <c r="I22">
+        <v>0.00214371222213616</v>
+      </c>
+      <c r="J22">
+        <v>0.00214371222213616</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>9.115710333333334</v>
+      </c>
+      <c r="N22">
+        <v>27.347131</v>
+      </c>
+      <c r="O22">
+        <v>0.1106357638930427</v>
+      </c>
+      <c r="P22">
+        <v>0.1106357638930427</v>
+      </c>
+      <c r="Q22">
+        <v>2.058208889032334</v>
+      </c>
+      <c r="R22">
+        <v>18.523880001291</v>
+      </c>
+      <c r="S22">
+        <v>0.0002371712392628861</v>
+      </c>
+      <c r="T22">
+        <v>0.0002371712392628861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.225787</v>
+      </c>
+      <c r="H23">
+        <v>0.677361</v>
+      </c>
+      <c r="I23">
+        <v>0.00214371222213616</v>
+      </c>
+      <c r="J23">
+        <v>0.00214371222213616</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.004096000000001</v>
+      </c>
+      <c r="N23">
+        <v>27.012288</v>
+      </c>
+      <c r="O23">
+        <v>0.1092811204721574</v>
+      </c>
+      <c r="P23">
+        <v>0.1092811204721574</v>
+      </c>
+      <c r="Q23">
+        <v>2.033007823552</v>
+      </c>
+      <c r="R23">
+        <v>18.297070411968</v>
+      </c>
+      <c r="S23">
+        <v>0.000234267273604898</v>
+      </c>
+      <c r="T23">
+        <v>0.000234267273604898</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.225787</v>
+      </c>
+      <c r="H24">
+        <v>0.677361</v>
+      </c>
+      <c r="I24">
+        <v>0.00214371222213616</v>
+      </c>
+      <c r="J24">
+        <v>0.00214371222213616</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>31.76332533333333</v>
+      </c>
+      <c r="N24">
+        <v>95.289976</v>
+      </c>
+      <c r="O24">
+        <v>0.3855058611490069</v>
+      </c>
+      <c r="P24">
+        <v>0.3855058611490069</v>
+      </c>
+      <c r="Q24">
+        <v>7.171745937037333</v>
+      </c>
+      <c r="R24">
+        <v>64.54571343333599</v>
+      </c>
+      <c r="S24">
+        <v>0.0008264136262502517</v>
+      </c>
+      <c r="T24">
+        <v>0.0008264136262502517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.225787</v>
+      </c>
+      <c r="H25">
+        <v>0.677361</v>
+      </c>
+      <c r="I25">
+        <v>0.00214371222213616</v>
+      </c>
+      <c r="J25">
+        <v>0.00214371222213616</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>30.12843966666667</v>
+      </c>
+      <c r="N25">
+        <v>90.385319</v>
+      </c>
+      <c r="O25">
+        <v>0.3656635429976674</v>
+      </c>
+      <c r="P25">
+        <v>0.3656635429976673</v>
+      </c>
+      <c r="Q25">
+        <v>6.802610007017666</v>
+      </c>
+      <c r="R25">
+        <v>61.223490063159</v>
+      </c>
+      <c r="S25">
+        <v>0.0007838774063137111</v>
+      </c>
+      <c r="T25">
+        <v>0.000783877406313711</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.225787</v>
+      </c>
+      <c r="H26">
+        <v>0.677361</v>
+      </c>
+      <c r="I26">
+        <v>0.00214371222213616</v>
+      </c>
+      <c r="J26">
+        <v>0.00214371222213616</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.382313</v>
+      </c>
+      <c r="N26">
+        <v>7.146939</v>
+      </c>
+      <c r="O26">
+        <v>0.0289137114881257</v>
+      </c>
+      <c r="P26">
+        <v>0.02891371148812569</v>
+      </c>
+      <c r="Q26">
+        <v>0.5378953053309999</v>
+      </c>
+      <c r="R26">
+        <v>4.841057747979</v>
+      </c>
+      <c r="S26">
+        <v>6.198267670441377E-05</v>
+      </c>
+      <c r="T26">
+        <v>6.198267670441377E-05</v>
       </c>
     </row>
   </sheetData>
